--- a/public/Extracted data1.xlsx
+++ b/public/Extracted data1.xlsx
@@ -45,9 +45,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Is Litigated</t>
-  </si>
-  <si>
     <t>WO2020094205A4</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>No. of Forward Citations</t>
+  </si>
+  <si>
+    <t>Is Litigated and find</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -501,22 +501,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="2" spans="1:16" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3">
         <v>44689</v>
@@ -551,18 +551,18 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>44650</v>
@@ -586,18 +586,18 @@
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -609,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3">
         <v>44650</v>
@@ -621,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
